--- a/biology/Zoologie/GloFish/GloFish.xlsx
+++ b/biology/Zoologie/GloFish/GloFish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GloFish est une marque déposée de poisson zèbre génétiquement modifié par l'introduction dans son génome de gènes ayant pour origine « des organismes marins »[1] et codant une protéine fluorescente conférant des couleurs rouge, vert et orange clair quand il est éclairé par une lumière ultraviolette.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GloFish est une marque déposée de poisson zèbre génétiquement modifié par l'introduction dans son génome de gènes ayant pour origine « des organismes marins » et codant une protéine fluorescente conférant des couleurs rouge, vert et orange clair quand il est éclairé par une lumière ultraviolette.
 Le nom de ce poisson transgénique (qui vit en eau douce et chaude) est dérivé des mots anglais to glow (« luire ») et fish (« poisson »). Ils sont surnommés Frankenfish par leurs opposants, en référence au mythe de Frankenstein.
 </t>
         </is>
@@ -512,16 +524,18 @@
           <t>Histoire commerciale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon leurs créateurs, les poissons fluorescents n'ont pas été originellement conçus pour l'aquariophilie.
-La première lignée en a été créée en 1999 (et breveté en 2000) par Vandel Olan, Richard Simon, Toong Jin Lam, et Bensheng Ju de l'Université nationale de Singapour pour servir d'indicateur de pollution[2] (bioindication[3]). Les auteurs ont intégré un gène codant une protéine fluorescente verte (GFP) (extrait d'une méduse fluorescente). Le gène inséré dans un embryon de poisson zèbre devait être activé en présence de certaines toxines environnementales. La technique d'insertion d'un gène dans le génome étant partiellement aléatoire, le gène s'est inséré à proximité d'un gène d'expression musculaire activé en permanence. L'Université nationale de Singapour et un groupe de 6 chercheurs ont en août de l'année 2000 déposé une demande de brevet international (n'incluant pas les États-Unis pour 4 des demandeurs et ne portant que sur les États-Unis pour les 3 inventeurs du procédé) pour cette chimère génétique[4]. L'invention brevetée porte sur « quatre promoteurs géniques du poisson zèbre, spécifiques de la peau, des muscles, et des muscles du squelette, exprimés respectivement de manière ubiquiste, isolés et formant une ligature avec l'extrémité 5 du gène de la protéine fluorescente verte améliorée (EGFP). Lorsque les constructions géniques chimères résultantes sont introduites dans le poisson zèbre, le poisson zèbre transgénique émet une fluorescence verte en réponse à une lumière bleue ou ultraviolette, en fonction de la spécificité des promoteurs utilisés. Puis, on développe de nouvelles variétés de poissons d'agrément présentant différents motifs fluorescents, par exemple la fluorescence de la peau, des muscles, et la fluorescence spécifique d'un muscle du squelette et/ou ubiquiste ».
-Il est ainsi devenu le premier animal de compagnie transgénique[5]. Ce gène s'exprime sous le contrôle transcriptionnel du promoteur du gène myosin light peptide 2[6].
+La première lignée en a été créée en 1999 (et breveté en 2000) par Vandel Olan, Richard Simon, Toong Jin Lam, et Bensheng Ju de l'Université nationale de Singapour pour servir d'indicateur de pollution (bioindication). Les auteurs ont intégré un gène codant une protéine fluorescente verte (GFP) (extrait d'une méduse fluorescente). Le gène inséré dans un embryon de poisson zèbre devait être activé en présence de certaines toxines environnementales. La technique d'insertion d'un gène dans le génome étant partiellement aléatoire, le gène s'est inséré à proximité d'un gène d'expression musculaire activé en permanence. L'Université nationale de Singapour et un groupe de 6 chercheurs ont en août de l'année 2000 déposé une demande de brevet international (n'incluant pas les États-Unis pour 4 des demandeurs et ne portant que sur les États-Unis pour les 3 inventeurs du procédé) pour cette chimère génétique. L'invention brevetée porte sur « quatre promoteurs géniques du poisson zèbre, spécifiques de la peau, des muscles, et des muscles du squelette, exprimés respectivement de manière ubiquiste, isolés et formant une ligature avec l'extrémité 5 du gène de la protéine fluorescente verte améliorée (EGFP). Lorsque les constructions géniques chimères résultantes sont introduites dans le poisson zèbre, le poisson zèbre transgénique émet une fluorescence verte en réponse à une lumière bleue ou ultraviolette, en fonction de la spécificité des promoteurs utilisés. Puis, on développe de nouvelles variétés de poissons d'agrément présentant différents motifs fluorescents, par exemple la fluorescence de la peau, des muscles, et la fluorescence spécifique d'un muscle du squelette et/ou ubiquiste ».
+Il est ainsi devenu le premier animal de compagnie transgénique. Ce gène s'exprime sous le contrôle transcriptionnel du promoteur du gène myosin light peptide 2.
 Le premier GloFish breveté a donc été un Danio rerio exprimant un gène amélioré codant une protéine flurorescente verte (issue d'une méduse), mais peu de temps après, la même équipe développait une lignée de poisson-zèbre fluorescent rouge en ajoutant un gène provenant d'un corailpolype de corail, et un autre poisson-zèbre fluorescent jaune-orange en ajoutant une variante du gène de méduse.
 Plus tard, une autre équipe (à l'Université nationale de Taïwan dirigée par le professeur Huai-Jen Tsai (蔡怀祯) a créé un médaka exprimant une fluorescence verte.
 Les droits exclusifs des chercheurs de Singapour pour la commercialisation internationale ont été achetés (aux environs de la fin 2002) par deux businessmen (Alan Blake et Richard Crockett) pour l'entreprise américaine Yorktown Technologies basée à Austin au Texas. Mais à peu près au même moment, un accord a été passé entre Taikong (leader dans le domaine de la production de poissons d'aquarium à Taïwan, et les chercheurs taïwanais pour commercialiser le medaka vert à Taïwan sous le nom de « TK-1 », faisant (au printemps de 2003) de Taïwan le premier pays autorisant la vente d'un animal transgénique de compagnie (environ 100 000 de ces poissons auraient été vendus en moins d'un mois pour 18,6 US$ chacun (environ 10 fois le prix normal d'un danio, qui souvent ne vit que quelques mois en aquarium). Il convient de préciser que le medaka fluorescent n'est pas nommé GloFish, car non commercialisé par Yorktown Technologies, mais par Taikong Corp sous une marque différente.
-Le processus de production piscicole des GloFish a été initié aux États-Unis via des contrats commerciaux de culture passés avec le 5-D Tropical un pisciculteur industriel qui dispose de centaines de bassins d'élevage dont en plein air dans une zone consacrée à l'aquaculture de poissons d'ornements à Plant City[7], et Segrest Farms également en Floride [8], pour une commercialisation à grande échelle aux États-Unis prévue dès janvier et lancée en décembre 2004[9].
-Cette commercialisation a fait débat et a contribué à alimenter la controverse[9] ; dès l'automne 2004, la Californie qui est un État qui a pourtant soutenu les OGM agricoles et qui est celui qui abrite le plus grand nombre d'entreprises de biotechnologie du pays[10] est cependant devenu le premier État à interdire la vente du GloFish et à prendre position sur la question des poissons transgéniques en interdisant l'introduction de poissons transgéniques dans ses eaux après que l'on ait évoqué une possible autorisation de mise sur le marché du saumon transgénique AquAdvantage salmon[10].
+Le processus de production piscicole des GloFish a été initié aux États-Unis via des contrats commerciaux de culture passés avec le 5-D Tropical un pisciculteur industriel qui dispose de centaines de bassins d'élevage dont en plein air dans une zone consacrée à l'aquaculture de poissons d'ornements à Plant City, et Segrest Farms également en Floride , pour une commercialisation à grande échelle aux États-Unis prévue dès janvier et lancée en décembre 2004.
+Cette commercialisation a fait débat et a contribué à alimenter la controverse ; dès l'automne 2004, la Californie qui est un État qui a pourtant soutenu les OGM agricoles et qui est celui qui abrite le plus grand nombre d'entreprises de biotechnologie du pays est cependant devenu le premier État à interdire la vente du GloFish et à prendre position sur la question des poissons transgéniques en interdisant l'introduction de poissons transgéniques dans ses eaux après que l'on ait évoqué une possible autorisation de mise sur le marché du saumon transgénique AquAdvantage salmon.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Développements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs variants colorés de danios GloFish ont été commercialisés aux États-Unis depuis 2003, toujours par l'entreprise Yorktown Technologies ; outre le GloFish rouge (dont le nom de marque Starfire Red, elle a mis sur le marché (mi-2006) des variants vert fluorescent et jaune-orange fluorescent, ainsi (en 2011) que deux nouveaux variants (bleu et violet fluorescent).
 Ces lignées de poissons sont également protégées juridiquement par des marques déposées aux noms évocateurs (Electric Green, Sunburst Orange, Cosmic Blue et Galactic Purple) qui incorporent d'autres gènes.
@@ -583,19 +599,91 @@
           <t>Aspects juridiques et sécurité environnementale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apparition d'une espèce nouvelle, couverte par une protection commerciale, et susceptible de se reproduire pose des questions nouvelles au droit commercial, au droit de l'environnement et en termes de biovigilance et de biosécurité.
-Droit
-La Licence de vente d'un poisson GloFish Fluorescent stipule que « toute reproduction intentionnelle et/ou toute vente, troc ou commerce, de toute descendance de poissons d'ornement GloFish® fluorescent sont strictement interdits »[11], ce qui laisse un léger flou juridique et éthique concernant la « reproduction non-intentionnelle ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GloFish</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/GloFish</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aspects juridiques et sécurité environnementale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Droit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Licence de vente d'un poisson GloFish Fluorescent stipule que « toute reproduction intentionnelle et/ou toute vente, troc ou commerce, de toute descendance de poissons d'ornement GloFish® fluorescent sont strictement interdits », ce qui laisse un léger flou juridique et éthique concernant la « reproduction non-intentionnelle ».
 La vente et/ou la possession de GloFish non achetés légalement sont interdites dans tous les États-Unis.
-En Californie, toute vente ou possession de GloFish, même achetés légalement dans un autre État sont toujours illégales (comme pour toute autre espèce de poisson génétiquement modifié), selon une loi votée pour répondre aux préoccupations environnementales suscitée par un projet de mise sur le marché d'un saumon génétiquement modifié pour une croissance rapide. La Commission Fish and Game a refusé la dérogation demandée pour la vente ou détention de GloFish en décembre 2003, puis a envisagé d'exempter GloFish de la réglementation, mais l'entreprise Yorktown Technologies doit alors produire une étude d'impact au titre de la Loi californienne sur la qualité de l'environnement. L'entreprise informée par les avocats de l’État estime qu'une telle étude serait trop longue et coûteuse et n'envisagerait pas pour l'instant de l'entreprendre[11] ; plus récemment (Janvier 2009), la FDA (US Food &amp; Drug Administration) a formalisé ses recommandations concernant les animaux génétiquement modifiés[12], avec une mise à jour en 2008, complétée en décembre 2012 (susceptible d'être modifiée depuis)[13]. La FDA prend acte que « la transparence est une préoccupation souvent citée à propos de l'approbation des animaux transgéniques »[13] et pour l'avenir, « dans la version finale de son document d'orientation, l'Agence a annoncé son intention de tenir des réunions publiques et des comités consultatifs avant d'approuver un animal transgénique[13]. Ces réunions ouvertes au public aideront à informer le public au sujet du produit que la FDA examine et comment l'Agence a procédé à son examen ». La FDA précisait alors (2008) que « répondre aux préoccupations environnementales sera un élément important du processus de préapprobation »[13], mais selon le Dr Rudenko  selon les risques, l'Agence pourrait décider des dérogations « pour certains animaux génétiquement modifiés[13]. Par exemple, les animaux des espèces non traditionnellement consommé comme aliment, utilisé pour la recherche en laboratoire et conservés dans des conditions très confinées n'aurait pas besoin d'être approuvé. En outre, certains autres produits non alimentaires des animaux, une fois soumis à un examen fondé sur le risque, pourrait également être commercialisé sans approbation formelle (par exemple, GloFish) »[13]. Toutefois, a-t-il ajouté, « tout promoteur développant un animal GE, quel qu'en soit l'usage, devraient discuter du développement d'une CVM pour déterminer quelles sont les exigences que le commanditaire devrait suivre »[13]. Ces recommandations sont non contraignantes[14] mais concernent tous les animaux génétiquement modifiés, dont les GloFish[14].
-À une demande d'exemption visant à autoriser ce poisson en Californie, la commission California Fish and Game Commission (le 3 décembre 2004) a répondu négativement, au motif que « Créer un animal de compagnie nouveau est une utilisation frivole de cette technologie. Peu importe le degré de faiblesse du risque, il doit y avoir un avantage public qui est plus élevé que celui-ci »[15].
+En Californie, toute vente ou possession de GloFish, même achetés légalement dans un autre État sont toujours illégales (comme pour toute autre espèce de poisson génétiquement modifié), selon une loi votée pour répondre aux préoccupations environnementales suscitée par un projet de mise sur le marché d'un saumon génétiquement modifié pour une croissance rapide. La Commission Fish and Game a refusé la dérogation demandée pour la vente ou détention de GloFish en décembre 2003, puis a envisagé d'exempter GloFish de la réglementation, mais l'entreprise Yorktown Technologies doit alors produire une étude d'impact au titre de la Loi californienne sur la qualité de l'environnement. L'entreprise informée par les avocats de l’État estime qu'une telle étude serait trop longue et coûteuse et n'envisagerait pas pour l'instant de l'entreprendre ; plus récemment (Janvier 2009), la FDA (US Food &amp; Drug Administration) a formalisé ses recommandations concernant les animaux génétiquement modifiés, avec une mise à jour en 2008, complétée en décembre 2012 (susceptible d'être modifiée depuis). La FDA prend acte que « la transparence est une préoccupation souvent citée à propos de l'approbation des animaux transgéniques » et pour l'avenir, « dans la version finale de son document d'orientation, l'Agence a annoncé son intention de tenir des réunions publiques et des comités consultatifs avant d'approuver un animal transgénique. Ces réunions ouvertes au public aideront à informer le public au sujet du produit que la FDA examine et comment l'Agence a procédé à son examen ». La FDA précisait alors (2008) que « répondre aux préoccupations environnementales sera un élément important du processus de préapprobation », mais selon le Dr Rudenko  selon les risques, l'Agence pourrait décider des dérogations « pour certains animaux génétiquement modifiés. Par exemple, les animaux des espèces non traditionnellement consommé comme aliment, utilisé pour la recherche en laboratoire et conservés dans des conditions très confinées n'aurait pas besoin d'être approuvé. En outre, certains autres produits non alimentaires des animaux, une fois soumis à un examen fondé sur le risque, pourrait également être commercialisé sans approbation formelle (par exemple, GloFish) ». Toutefois, a-t-il ajouté, « tout promoteur développant un animal GE, quel qu'en soit l'usage, devraient discuter du développement d'une CVM pour déterminer quelles sont les exigences que le commanditaire devrait suivre ». Ces recommandations sont non contraignantes mais concernent tous les animaux génétiquement modifiés, dont les GloFish.
+À une demande d'exemption visant à autoriser ce poisson en Californie, la commission California Fish and Game Commission (le 3 décembre 2004) a répondu négativement, au motif que « Créer un animal de compagnie nouveau est une utilisation frivole de cette technologie. Peu importe le degré de faiblesse du risque, il doit y avoir un avantage public qui est plus élevé que celui-ci ».
 Le Canada a interdit toute importation et vente de poissons GloFish, à cause du manque d'informations apportées par l'entreprise, qui ne permet pas de prendre une décision motivée en matière de sécurité.
-L'Union européenne, pour les mêmes raisons, interdit l'importation, la vente et la possession de ces poissons. Cependant des importations frauduleuses ont passé les barrières douanières. Le 9 novembre 2006, le Ministère néerlandais du Logement, de l'Aménagement du Territoire et de l'Environnement (VROM) a signalé avoir trouvé 400 poissons fluorescents vendus dans plusieurs magasins d'aquariophilie du pays[16].
-Les intentions de l'entreprise en termes de commercialisation à l'international ne sont pas claires : selon la page d'information sur sa licence de vente[11], la société annonce ne pas avoir de projets de vente ailleurs qu'aux États-Unis (sous réserve de changement de politique dans le futur)[17]. Mais il semble que les mêmes Danios rerio (vert fluorescents), élevés à Taïwan ont été vendus en Asie (à Taïwan, en Malaisie et à Hong Kong[18] ; Singapour ayant de son côté confisqué les importations[18].
-Biosécurité
-On ignore si la fluorescence des méduses, de certains coraux ou autres organismes leur confère un avantage adaptatif, et si un tel avantage (s'il existe) pourrait alors être transféré à un organisme génétiquement modifiés pour devenir fluorescence sous certains éclairages ou à la lumière du jour. On ne sait pas non plus si la transmission involontaire de ce caractère nouveau à des parents sauvages pourraient les défavoriser dans la nature (en les rendant par exemple plus repérables par des prédateurs tels que les oiseaux ou d'autres).
+L'Union européenne, pour les mêmes raisons, interdit l'importation, la vente et la possession de ces poissons. Cependant des importations frauduleuses ont passé les barrières douanières. Le 9 novembre 2006, le Ministère néerlandais du Logement, de l'Aménagement du Territoire et de l'Environnement (VROM) a signalé avoir trouvé 400 poissons fluorescents vendus dans plusieurs magasins d'aquariophilie du pays.
+Les intentions de l'entreprise en termes de commercialisation à l'international ne sont pas claires : selon la page d'information sur sa licence de vente, la société annonce ne pas avoir de projets de vente ailleurs qu'aux États-Unis (sous réserve de changement de politique dans le futur). Mais il semble que les mêmes Danios rerio (vert fluorescents), élevés à Taïwan ont été vendus en Asie (à Taïwan, en Malaisie et à Hong Kong ; Singapour ayant de son côté confisqué les importations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GloFish</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/GloFish</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspects juridiques et sécurité environnementale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biosécurité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ignore si la fluorescence des méduses, de certains coraux ou autres organismes leur confère un avantage adaptatif, et si un tel avantage (s'il existe) pourrait alors être transféré à un organisme génétiquement modifiés pour devenir fluorescence sous certains éclairages ou à la lumière du jour. On ne sait pas non plus si la transmission involontaire de ce caractère nouveau à des parents sauvages pourraient les défavoriser dans la nature (en les rendant par exemple plus repérables par des prédateurs tels que les oiseaux ou d'autres).
 </t>
         </is>
       </c>
